--- a/computer_arch/first_assignment/1.xlsx
+++ b/computer_arch/first_assignment/1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>From/To</t>
   </si>
@@ -150,6 +150,32 @@
   </si>
   <si>
     <t>O-R7</t>
+  </si>
+  <si>
+    <r>
+      <t>F-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>R7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>R5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -471,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -612,10 +638,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -713,12 +736,15 @@
         <v>15</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
